--- a/Code/E-OBS_use/Compute_distributions/Dates_converter_1.xlsx
+++ b/Code/E-OBS_use/Compute_distributions/Dates_converter_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\These\JUICCE\Code\E-OBS_use\Compute_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABEC1F7-B22E-4778-A10F-A2819A0387BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3631AD09-9C2A-4759-8E94-781D7ED906E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Dates_converter_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Dates_converter_1!$A$1:$D$74</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Dates_converter_1!$A$1:$E$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Idx_end</t>
+  </si>
+  <si>
+    <t>Idx_1st_June</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -617,11 +623,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="8">
+    <queryTableFields count="5">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="5" name="Column5" tableColumnId="5"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="3"/>
       <queryTableField id="6" name="Column6" tableColumnId="6"/>
     </queryTableFields>
     <queryTableDeletedFields count="2">
@@ -633,13 +640,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dates_converter_Feuille_1" displayName="Dates_converter_Feuille_1" ref="A1:D74" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Year" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nb_days" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Idx_start" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Idx_end" queryTableFieldId="6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Dates_converter_Feuille_1" displayName="Dates_converter_Feuille_1" ref="A1:E74" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Year" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Nb_days" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Idx_start" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D909C651-2968-4A96-BB4B-051B24F67343}" uniqueName="3" name="Idx_1st_June" queryTableFieldId="7" dataDxfId="0">
+      <calculatedColumnFormula>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Idx_end" queryTableFieldId="6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -942,18 +952,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,10 +976,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1950</v>
       </c>
@@ -978,11 +993,15 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>151</v>
+      </c>
+      <c r="E2">
         <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+Dates_converter_Feuille_1[[#This Row],[Nb_days]]-1</f>
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1951</v>
       </c>
@@ -994,11 +1013,15 @@
         <v>365</v>
       </c>
       <c r="D3">
-        <f>D2+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>516</v>
+      </c>
+      <c r="E3">
+        <f>E2+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1952</v>
       </c>
@@ -1010,11 +1033,15 @@
         <v>730</v>
       </c>
       <c r="D4">
-        <f>D3+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>882</v>
+      </c>
+      <c r="E4">
+        <f>E3+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>1095</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -1026,11 +1053,15 @@
         <v>1096</v>
       </c>
       <c r="D5">
-        <f>D4+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>1247</v>
+      </c>
+      <c r="E5">
+        <f>E4+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>1460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1954</v>
       </c>
@@ -1042,11 +1073,15 @@
         <v>1461</v>
       </c>
       <c r="D6">
-        <f>D5+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>1612</v>
+      </c>
+      <c r="E6">
+        <f>E5+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>1825</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1955</v>
       </c>
@@ -1058,11 +1093,15 @@
         <v>1826</v>
       </c>
       <c r="D7">
-        <f>D6+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>1977</v>
+      </c>
+      <c r="E7">
+        <f>E6+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>2190</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1956</v>
       </c>
@@ -1074,11 +1113,15 @@
         <v>2191</v>
       </c>
       <c r="D8">
-        <f>D7+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>2343</v>
+      </c>
+      <c r="E8">
+        <f>E7+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>2556</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1957</v>
       </c>
@@ -1090,11 +1133,15 @@
         <v>2557</v>
       </c>
       <c r="D9">
-        <f>D8+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>2708</v>
+      </c>
+      <c r="E9">
+        <f>E8+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>2921</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1958</v>
       </c>
@@ -1106,11 +1153,15 @@
         <v>2922</v>
       </c>
       <c r="D10">
-        <f>D9+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>3073</v>
+      </c>
+      <c r="E10">
+        <f>E9+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>3286</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1959</v>
       </c>
@@ -1122,11 +1173,15 @@
         <v>3287</v>
       </c>
       <c r="D11">
-        <f>D10+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>3438</v>
+      </c>
+      <c r="E11">
+        <f>E10+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>3651</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1960</v>
       </c>
@@ -1138,11 +1193,15 @@
         <v>3652</v>
       </c>
       <c r="D12">
-        <f>D11+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>3804</v>
+      </c>
+      <c r="E12">
+        <f>E11+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>4017</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1961</v>
       </c>
@@ -1154,11 +1213,15 @@
         <v>4018</v>
       </c>
       <c r="D13">
-        <f>D12+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>4169</v>
+      </c>
+      <c r="E13">
+        <f>E12+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>4382</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -1170,11 +1233,15 @@
         <v>4383</v>
       </c>
       <c r="D14">
-        <f>D13+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>4534</v>
+      </c>
+      <c r="E14">
+        <f>E13+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>4747</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1963</v>
       </c>
@@ -1186,11 +1253,15 @@
         <v>4748</v>
       </c>
       <c r="D15">
-        <f>D14+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>4899</v>
+      </c>
+      <c r="E15">
+        <f>E14+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>5112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1964</v>
       </c>
@@ -1202,11 +1273,15 @@
         <v>5113</v>
       </c>
       <c r="D16">
-        <f>D15+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>5265</v>
+      </c>
+      <c r="E16">
+        <f>E15+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>5478</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1965</v>
       </c>
@@ -1218,11 +1293,15 @@
         <v>5479</v>
       </c>
       <c r="D17">
-        <f>D16+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>5630</v>
+      </c>
+      <c r="E17">
+        <f>E16+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>5843</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1966</v>
       </c>
@@ -1234,11 +1313,15 @@
         <v>5844</v>
       </c>
       <c r="D18">
-        <f>D17+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>5995</v>
+      </c>
+      <c r="E18">
+        <f>E17+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>6208</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1967</v>
       </c>
@@ -1250,11 +1333,15 @@
         <v>6209</v>
       </c>
       <c r="D19">
-        <f>D18+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>6360</v>
+      </c>
+      <c r="E19">
+        <f>E18+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>6573</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1968</v>
       </c>
@@ -1266,11 +1353,15 @@
         <v>6574</v>
       </c>
       <c r="D20">
-        <f>D19+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>6726</v>
+      </c>
+      <c r="E20">
+        <f>E19+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>6939</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1969</v>
       </c>
@@ -1282,11 +1373,15 @@
         <v>6940</v>
       </c>
       <c r="D21">
-        <f>D20+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>7091</v>
+      </c>
+      <c r="E21">
+        <f>E20+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>7304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1970</v>
       </c>
@@ -1298,11 +1393,15 @@
         <v>7305</v>
       </c>
       <c r="D22">
-        <f>D21+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>7456</v>
+      </c>
+      <c r="E22">
+        <f>E21+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>7669</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1971</v>
       </c>
@@ -1314,11 +1413,15 @@
         <v>7670</v>
       </c>
       <c r="D23">
-        <f>D22+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>7821</v>
+      </c>
+      <c r="E23">
+        <f>E22+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>8034</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1972</v>
       </c>
@@ -1330,11 +1433,15 @@
         <v>8035</v>
       </c>
       <c r="D24">
-        <f>D23+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>8187</v>
+      </c>
+      <c r="E24">
+        <f>E23+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1973</v>
       </c>
@@ -1346,11 +1453,15 @@
         <v>8401</v>
       </c>
       <c r="D25">
-        <f>D24+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>8552</v>
+      </c>
+      <c r="E25">
+        <f>E24+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>8765</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1974</v>
       </c>
@@ -1362,11 +1473,15 @@
         <v>8766</v>
       </c>
       <c r="D26">
-        <f>D25+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>8917</v>
+      </c>
+      <c r="E26">
+        <f>E25+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>9130</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1975</v>
       </c>
@@ -1378,11 +1493,15 @@
         <v>9131</v>
       </c>
       <c r="D27">
-        <f>D26+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>9282</v>
+      </c>
+      <c r="E27">
+        <f>E26+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>9495</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1976</v>
       </c>
@@ -1394,11 +1513,15 @@
         <v>9496</v>
       </c>
       <c r="D28">
-        <f>D27+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>9648</v>
+      </c>
+      <c r="E28">
+        <f>E27+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>9861</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1977</v>
       </c>
@@ -1410,11 +1533,15 @@
         <v>9862</v>
       </c>
       <c r="D29">
-        <f>D28+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>10013</v>
+      </c>
+      <c r="E29">
+        <f>E28+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>10226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1978</v>
       </c>
@@ -1426,11 +1553,15 @@
         <v>10227</v>
       </c>
       <c r="D30">
-        <f>D29+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>10378</v>
+      </c>
+      <c r="E30">
+        <f>E29+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>10591</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1979</v>
       </c>
@@ -1442,11 +1573,15 @@
         <v>10592</v>
       </c>
       <c r="D31">
-        <f>D30+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>10743</v>
+      </c>
+      <c r="E31">
+        <f>E30+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>10956</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1980</v>
       </c>
@@ -1458,11 +1593,15 @@
         <v>10957</v>
       </c>
       <c r="D32">
-        <f>D31+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>11109</v>
+      </c>
+      <c r="E32">
+        <f>E31+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>11322</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1981</v>
       </c>
@@ -1474,11 +1613,15 @@
         <v>11323</v>
       </c>
       <c r="D33">
-        <f>D32+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>11474</v>
+      </c>
+      <c r="E33">
+        <f>E32+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>11687</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1982</v>
       </c>
@@ -1490,11 +1633,15 @@
         <v>11688</v>
       </c>
       <c r="D34">
-        <f>D33+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>11839</v>
+      </c>
+      <c r="E34">
+        <f>E33+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>12052</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1983</v>
       </c>
@@ -1506,11 +1653,15 @@
         <v>12053</v>
       </c>
       <c r="D35">
-        <f>D34+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>12204</v>
+      </c>
+      <c r="E35">
+        <f>E34+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>12417</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1984</v>
       </c>
@@ -1522,11 +1673,15 @@
         <v>12418</v>
       </c>
       <c r="D36">
-        <f>D35+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>12570</v>
+      </c>
+      <c r="E36">
+        <f>E35+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>12783</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1985</v>
       </c>
@@ -1538,11 +1693,15 @@
         <v>12784</v>
       </c>
       <c r="D37">
-        <f>D36+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>12935</v>
+      </c>
+      <c r="E37">
+        <f>E36+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>13148</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1986</v>
       </c>
@@ -1554,11 +1713,15 @@
         <v>13149</v>
       </c>
       <c r="D38">
-        <f>D37+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>13300</v>
+      </c>
+      <c r="E38">
+        <f>E37+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>13513</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1987</v>
       </c>
@@ -1570,11 +1733,15 @@
         <v>13514</v>
       </c>
       <c r="D39">
-        <f>D38+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>13665</v>
+      </c>
+      <c r="E39">
+        <f>E38+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>13878</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1988</v>
       </c>
@@ -1586,11 +1753,15 @@
         <v>13879</v>
       </c>
       <c r="D40">
-        <f>D39+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>14031</v>
+      </c>
+      <c r="E40">
+        <f>E39+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>14244</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1989</v>
       </c>
@@ -1602,11 +1773,15 @@
         <v>14245</v>
       </c>
       <c r="D41">
-        <f>D40+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>14396</v>
+      </c>
+      <c r="E41">
+        <f>E40+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>14609</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1990</v>
       </c>
@@ -1618,11 +1793,15 @@
         <v>14610</v>
       </c>
       <c r="D42">
-        <f>D41+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>14761</v>
+      </c>
+      <c r="E42">
+        <f>E41+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>14974</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1991</v>
       </c>
@@ -1634,11 +1813,15 @@
         <v>14975</v>
       </c>
       <c r="D43">
-        <f>D42+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>15126</v>
+      </c>
+      <c r="E43">
+        <f>E42+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>15339</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1992</v>
       </c>
@@ -1650,11 +1833,15 @@
         <v>15340</v>
       </c>
       <c r="D44">
-        <f>D43+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>15492</v>
+      </c>
+      <c r="E44">
+        <f>E43+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>15705</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1993</v>
       </c>
@@ -1666,11 +1853,15 @@
         <v>15706</v>
       </c>
       <c r="D45">
-        <f>D44+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>15857</v>
+      </c>
+      <c r="E45">
+        <f>E44+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>16070</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1994</v>
       </c>
@@ -1682,11 +1873,15 @@
         <v>16071</v>
       </c>
       <c r="D46">
-        <f>D45+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>16222</v>
+      </c>
+      <c r="E46">
+        <f>E45+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>16435</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1995</v>
       </c>
@@ -1698,11 +1893,15 @@
         <v>16436</v>
       </c>
       <c r="D47">
-        <f>D46+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>16587</v>
+      </c>
+      <c r="E47">
+        <f>E46+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>16800</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1996</v>
       </c>
@@ -1714,11 +1913,15 @@
         <v>16801</v>
       </c>
       <c r="D48">
-        <f>D47+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>16953</v>
+      </c>
+      <c r="E48">
+        <f>E47+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>17166</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1997</v>
       </c>
@@ -1730,11 +1933,15 @@
         <v>17167</v>
       </c>
       <c r="D49">
-        <f>D48+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>17318</v>
+      </c>
+      <c r="E49">
+        <f>E48+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>17531</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1998</v>
       </c>
@@ -1746,11 +1953,15 @@
         <v>17532</v>
       </c>
       <c r="D50">
-        <f>D49+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>17683</v>
+      </c>
+      <c r="E50">
+        <f>E49+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>17896</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1999</v>
       </c>
@@ -1762,11 +1973,15 @@
         <v>17897</v>
       </c>
       <c r="D51">
-        <f>D50+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>18048</v>
+      </c>
+      <c r="E51">
+        <f>E50+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>18261</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2000</v>
       </c>
@@ -1778,11 +1993,15 @@
         <v>18262</v>
       </c>
       <c r="D52">
-        <f>D51+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>18414</v>
+      </c>
+      <c r="E52">
+        <f>E51+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>18627</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -1794,11 +2013,15 @@
         <v>18628</v>
       </c>
       <c r="D53">
-        <f>D52+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>18779</v>
+      </c>
+      <c r="E53">
+        <f>E52+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>18992</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2002</v>
       </c>
@@ -1810,11 +2033,15 @@
         <v>18993</v>
       </c>
       <c r="D54">
-        <f>D53+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>19144</v>
+      </c>
+      <c r="E54">
+        <f>E53+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>19357</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2003</v>
       </c>
@@ -1826,11 +2053,15 @@
         <v>19358</v>
       </c>
       <c r="D55">
-        <f>D54+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>19509</v>
+      </c>
+      <c r="E55">
+        <f>E54+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>19722</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2004</v>
       </c>
@@ -1842,11 +2073,15 @@
         <v>19723</v>
       </c>
       <c r="D56">
-        <f>D55+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>19875</v>
+      </c>
+      <c r="E56">
+        <f>E55+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>20088</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -1858,11 +2093,15 @@
         <v>20089</v>
       </c>
       <c r="D57">
-        <f>D56+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>20240</v>
+      </c>
+      <c r="E57">
+        <f>E56+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>20453</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -1874,11 +2113,15 @@
         <v>20454</v>
       </c>
       <c r="D58">
-        <f>D57+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>20605</v>
+      </c>
+      <c r="E58">
+        <f>E57+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>20818</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2007</v>
       </c>
@@ -1890,11 +2133,15 @@
         <v>20819</v>
       </c>
       <c r="D59">
-        <f>D58+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>20970</v>
+      </c>
+      <c r="E59">
+        <f>E58+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>21183</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2008</v>
       </c>
@@ -1906,11 +2153,15 @@
         <v>21184</v>
       </c>
       <c r="D60">
-        <f>D59+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>21336</v>
+      </c>
+      <c r="E60">
+        <f>E59+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>21549</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2009</v>
       </c>
@@ -1922,11 +2173,15 @@
         <v>21550</v>
       </c>
       <c r="D61">
-        <f>D60+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>21701</v>
+      </c>
+      <c r="E61">
+        <f>E60+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>21914</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2010</v>
       </c>
@@ -1938,11 +2193,15 @@
         <v>21915</v>
       </c>
       <c r="D62">
-        <f>D61+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>22066</v>
+      </c>
+      <c r="E62">
+        <f>E61+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>22279</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2011</v>
       </c>
@@ -1954,11 +2213,15 @@
         <v>22280</v>
       </c>
       <c r="D63">
-        <f>D62+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>22431</v>
+      </c>
+      <c r="E63">
+        <f>E62+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>22644</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2012</v>
       </c>
@@ -1970,11 +2233,15 @@
         <v>22645</v>
       </c>
       <c r="D64">
-        <f>D63+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>22797</v>
+      </c>
+      <c r="E64">
+        <f>E63+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>23010</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2013</v>
       </c>
@@ -1986,11 +2253,15 @@
         <v>23011</v>
       </c>
       <c r="D65">
-        <f>D64+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>23162</v>
+      </c>
+      <c r="E65">
+        <f>E64+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>23375</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -2002,11 +2273,15 @@
         <v>23376</v>
       </c>
       <c r="D66">
-        <f>D65+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>23527</v>
+      </c>
+      <c r="E66">
+        <f>E65+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>23740</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -2018,11 +2293,15 @@
         <v>23741</v>
       </c>
       <c r="D67">
-        <f>D66+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>23892</v>
+      </c>
+      <c r="E67">
+        <f>E66+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>24105</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2016</v>
       </c>
@@ -2034,11 +2313,15 @@
         <v>24106</v>
       </c>
       <c r="D68">
-        <f>D67+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>24258</v>
+      </c>
+      <c r="E68">
+        <f>E67+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>24471</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2017</v>
       </c>
@@ -2050,11 +2333,15 @@
         <v>24472</v>
       </c>
       <c r="D69">
-        <f>D68+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>24623</v>
+      </c>
+      <c r="E69">
+        <f>E68+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>24836</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -2066,11 +2353,15 @@
         <v>24837</v>
       </c>
       <c r="D70">
-        <f>D69+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>24988</v>
+      </c>
+      <c r="E70">
+        <f>E69+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>25201</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -2082,11 +2373,15 @@
         <v>25202</v>
       </c>
       <c r="D71">
-        <f>D70+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>25353</v>
+      </c>
+      <c r="E71">
+        <f>E70+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>25566</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -2098,11 +2393,15 @@
         <v>25567</v>
       </c>
       <c r="D72">
-        <f>D71+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>25719</v>
+      </c>
+      <c r="E72">
+        <f>E71+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>25932</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -2114,11 +2413,15 @@
         <v>25933</v>
       </c>
       <c r="D73">
-        <f>D72+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>26084</v>
+      </c>
+      <c r="E73">
+        <f>E72+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>26297</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -2130,7 +2433,11 @@
         <v>26298</v>
       </c>
       <c r="D74">
-        <f>D73+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
+        <f>Dates_converter_Feuille_1[[#This Row],[Idx_start]]+152-(1-(Dates_converter_Feuille_1[[#This Row],[Nb_days]]-365))</f>
+        <v>26449</v>
+      </c>
+      <c r="E74">
+        <f>E73+Dates_converter_Feuille_1[[#This Row],[Nb_days]]</f>
         <v>26662</v>
       </c>
     </row>
